--- a/uploads/output_ON_NSCHFDOPPR_20250525_1a7edbde_ddf6_4632_a3ee_6cae701a3379_0_1.xlsx
+++ b/uploads/output_ON_NSCHFDOPPR_20250525_1a7edbde_ddf6_4632_a3ee_6cae701a3379_0_1.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="СвПродПер" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="СвСчФакт" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ИнфПолФХЖ1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Итоги" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Файл" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Итоги" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,95 +452,105 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>АртикулТов</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Код товара</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>КодВидТов</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Количество</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Ед. измерения</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Стоимость без НДС</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ставка НДС</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Сумма НДС</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Сумма Акциза</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Стоимость с НДС</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ОКЕИ_Тов</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>GTIN</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ГТИН</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>КодПокупателя</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>НазваниеПокупателя</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>КИЗ</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>КрНаимСтрПр</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>КрНаимСтрPr</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>КодПроисх</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>НомерДТ</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>НомСредИдентТов</t>
         </is>
@@ -558,71 +569,77 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5005577168103</t>
+          <t>755005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ZE:BRA_755005_пион_40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6108220000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>728.57</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>5828.57</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>291.43</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>6120.00</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4610389700970</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>0104610389700970215loquYn8KR-l6; 0104610389700970215Jxjsb1IjyYbH; 0104610389700970215mA&gt;G0hSjQqq/; 0104610389700970215kmJeUG5K'Nsc; 0104610389700970215ndKpmbV(OaBk; 0104610389700970215:u4TB8TaUHAn; 0104610389700970215ZpAeeCOpZ&gt;kK; 0104610389700970215qHgThpHN&amp;goS</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -637,71 +654,77 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5002377168142</t>
+          <t>732005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>ZE:BRA_732005_пион_44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6108220000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>769.05</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>1538.10</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>76.90</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1615.00</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4610389700932</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
         <is>
           <t>0104610389700932215=GtQSSjTNMLp; 0104610389700932215csi*IKjrOC2C</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -716,71 +739,77 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5005577168127</t>
+          <t>755005</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>ZE:BRA_755005_пион_42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6108220000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>13.0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>728.57</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>9471.43</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>473.57</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>9945.00</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>4610389701007</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
         <is>
           <t>0104610389701007215JKiRHpCjc0ED; 0104610389701007215YfPBM/?oTWhk; 0104610389701007215Oqkj(g?H(99g; 0104610389701007215GAX&amp;O1aqKiUo; 0104610389701007215l2WUt2rKJg"c; 0104610389701007215DkSq*oxC5jqh; 0104610389701007215FPqmk_KoCBrj; 0104610389701007215VtGKFi?QooVV; 01046103897010072150=b&amp;vV&amp;Hc,AO; 0104610389701007215sVI/d&gt;NV.6eZ; 01046103897010072155C!x&amp;%-2vqaB; 0104610389701007215LC'QEYR_WqR=; 0104610389701007215GwEQt&amp;LejiiH</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -795,71 +824,77 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5002377168104</t>
+          <t>732005</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>ZE:BRA_732005_пион_40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6108220000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>769.05</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>1538.10</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>76.90</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1615.00</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>4610389700956</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
         <is>
           <t>0104610389700956215cGRX=bgvFqCw; 01046103897009562154W5Jh"fwXoPi</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -874,71 +909,77 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5005577168080</t>
+          <t>755005</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>ZE:BRA_755005_пион_38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6108220000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>728.57</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2914.29</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>145.71</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3060.00</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>4610389700963</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
         <is>
           <t>0104610389700963215?hHa;aVkduuZ; 0104610389700963215glhHDQ&gt;sDlHn; 0104610389700963215-3f)IC&amp;RUltm; 0104610389700963215ner+b;I*si0B</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,71 +994,77 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5005577168141</t>
+          <t>755005</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>ZE:BRA_755005_пион_44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6108220000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>728.57</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2185.71</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>109.29</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2295.00</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>4610389700987</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
         <is>
           <t>0104610389700987215aQiqS3rGgGd); 0104610389700987215+8JYwdPyVYNs; 0104610389700987215L%0dK_6)ImRN</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1032,71 +1079,77 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5004455168143</t>
+          <t>544005</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>ZE:BRA_544005_пион_44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>1214.29</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>2428.57</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>121.43</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2550.00</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>4610248510009</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
         <is>
           <t>01046102485100092157NTFX+qGo;CR; 0104610248510009215JKQHB-Afmc=)</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1111,71 +1164,77 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5004455168112</t>
+          <t>544005</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>ZE:BRA_544005_пион_50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>1214.29</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>4857.14</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>242.86</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>5100.00</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>4610248510030</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
         <is>
           <t>0104610248510030215RQjh)&amp;QMWDSy; 0104610248510030215wE.7!cPsXN?t; 0104610248510030215DX,MfTaln:jN; 0104610248510030215gsYmlp(kTdR8</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1190,71 +1249,77 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5004451681028</t>
+          <t>544005</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>ZE:BRA_544005_пион_52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>1214.29</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>4857.14</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>242.86</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>5100.00</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>4610248510047</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
         <is>
           <t>0104610248510047215IUFxu?gOh86d; 0104610248510047215L6jkEf/'07N;; 01046102485100472154RtrKjFsCMg1; 0104610248510047215gCsRUUrU%CJS</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1269,71 +1334,77 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5004455168167</t>
+          <t>544005</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>ZE:BRA_544005_пион_46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>1214.29</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>7285.71</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>364.29</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>7650.00</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>4610248510016</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
         <is>
           <t>0104610248510016215eWn0q(.Lgkzq; 0104610248510016215!H)M*kpKLWXI; 0104610248510016215x4S-kLXW,qAX; 0104610248510016215kG_:cJF&gt;&gt;pVU; 0104610248510016215LhMK&amp;dPTx&gt;E6; 0104610248510016215r)Kc*URftFiF</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1348,71 +1419,77 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5004455168181</t>
+          <t>544005</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>ZE:BRA_544005_пион_48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>1214.29</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>7285.71</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>364.29</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>7650.00</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>4610248510023</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
         <is>
           <t>0104610248510023215,nAQa5VaObhG; 0104610248510023215wqaC_!JXMCKJ; 0104610248510023215UGHUgDY2&gt;cZl; 01046102485100232156?ASYX+RmY2t; 0104610248510023215LCqvqA*UpSEE; 0104610248510023215C4naIplcqSBZ</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1427,71 +1504,77 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5005355168622</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_90C</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>4590.00</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>229.50</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>4819.50</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>4610248509874</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
         <is>
           <t>0104610248509874215deayBoQh%u!p; 0104610248509874215iUZ&lt;kjuIGMrR; 0104610248509874215n5h%&gt;mVWMzT&amp;</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1506,71 +1589,77 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5005355168639</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_90D</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>3060.00</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>153.00</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>3213.00</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>4610248509881</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
         <is>
           <t>0104610248509881215F%TfTWC)Nng+; 0104610248509881215&lt;zCd+OVOFjG7</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1585,71 +1674,77 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5005355168646</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_90E</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>3060.00</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>153.00</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>3213.00</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>4610248509898</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
         <is>
           <t>0104610248509898215TShTnLoHdJ+J; 0104610248509898215rM'(QO+teoEy</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1664,71 +1759,77 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5005355168653</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_90F</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>3060.00</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>153.00</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>3213.00</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>4610248509904</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
         <is>
           <t>0104610248509904215/uU'NDi8I"GE; 01046102485099042150_g_sOF?3ndI</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1743,71 +1844,77 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5005355168660</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_90G</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>4610248509911</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
         <is>
           <t>0104610248509911215!Ls8ir-/19RF</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1822,71 +1929,77 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5005355168677</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_90H</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>4610248509973</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
         <is>
           <t>0104610248509973215_ewoqJ.Lsi&lt;u</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1901,71 +2014,77 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5005355168738</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_95C</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>4610248509928</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
         <is>
           <t>0104610248509928215xCVObrYdDiBo</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1980,71 +2099,77 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5005355168745</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_95D</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>4590.00</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>229.50</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>4819.50</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>4610248509935</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
         <is>
           <t>0104610248509935215X(GsBemogoN;; 0104610248509935215pqaZGmvm0ZPJ; 0104610248509935215w6&amp;Zzsejh"+s</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2059,71 +2184,77 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5005355168318</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_75E</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>4610248509713</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
         <is>
           <t>0104610248509713215gCx'LZX8Hur8</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2138,71 +2269,77 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5005355168325</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_75F</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>4610248509720</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
         <is>
           <t>0104610248509720215HsPderkHBbRB</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2217,71 +2354,77 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5005355168332</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_75G</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>4610248509737</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
         <is>
           <t>0104610248509737215o1uCHpXZgJnf</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2296,71 +2439,77 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5005355168400</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_80C</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>4610248509744</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
         <is>
           <t>0104610248509744215WcPdd3Ul*OzV</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2375,71 +2524,77 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5005355168417</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_80D</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>4590.00</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>229.50</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>4819.50</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>4610248509751</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
         <is>
           <t>0104610248509751215eZ;BMU5Y!ogn; 0104610248509751215hovdcOPlP6pu; 0104610248509751215nakl_YC2rc&lt;k</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2454,71 +2609,77 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5005355168424</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_80E</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>3060.00</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>153.00</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>3213.00</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>4610248509768</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
         <is>
           <t>0104610248509768215Y/rFu6OdRIej; 0104610248509768215WW0JcLWm-GRN</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2533,71 +2694,77 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5005355168431</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_80F</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>4610248509775</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
         <is>
           <t>0104610248509775215DQ?eW)vCRE((</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2612,71 +2779,77 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5005355168448</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_80G</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>4610248509782</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
         <is>
           <t>0104610248509782215Dqm?WJdT6YdK</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2691,71 +2864,77 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5005355168455</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_80H</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>4610248509799</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
         <is>
           <t>0104610248509799215?'uIXvGAsfBt</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2770,71 +2949,77 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5005355168509</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_85B</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>4610248509805</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
         <is>
           <t>0104610248509805215XSSDX;pJXG&lt;R</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2849,71 +3034,77 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5005355168516</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_85C</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>3060.00</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>153.00</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>3213.00</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>4610248509812</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
         <is>
           <t>0104610248509812215m3ZFA.scUBmr; 0104610248509812215IIN&gt;YcMhYGtM</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2928,71 +3119,77 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5005355168523</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_85D</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>4610248509829</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
         <is>
           <t>0104610248509829215F%BPE%/Dcil(</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3007,71 +3204,77 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5005355168547</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_85F</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>4610248509843</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
         <is>
           <t>0104610248509843215wKCwZfN2;ZQA</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3086,71 +3289,77 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5005355168554</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_85G</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>4610248509850</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
         <is>
           <t>0104610248509850215jqZN7=!nvLtC</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3165,71 +3374,77 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5005355168530</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_85E</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>4610248509836</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
         <is>
           <t>0104610248509836215d%hYsNeXaX53</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3244,71 +3459,77 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5005355168561</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_85H</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>4610248509867</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
         <is>
           <t>0104610248509867215/HH;lw.o0lx.</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3323,71 +3544,77 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5005355168578</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_85I</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>4610248509997</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
         <is>
           <t>0104610248509997215cct9bO5WkXcB</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3402,71 +3629,77 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5005355168752</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_95E</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>4610248509942</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
         <is>
           <t>010461024850994221536PE).KJZDC%</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3481,71 +3714,77 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5005355168769</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_95F</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>4610248509959</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
         <is>
           <t>0104610248509959215'bion(%2nVFu</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3560,71 +3799,77 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5005355168776</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_95G</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>4610248509966</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
         <is>
           <t>0104610248509966215ZSY&amp;z&amp;1PLlBc</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3639,71 +3884,77 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5005355168790</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_100B</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>4610248509676</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
         <is>
           <t>0104610248509676215Fjglc&lt;Jq'RPa</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3718,71 +3969,77 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5005355168806</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_100C</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>4610248509683</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
         <is>
           <t>0104610248509683215B(eZ*aVAlKJ9</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3797,71 +4054,77 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5005355168813</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_100D</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>4610248509690</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
         <is>
           <t>0104610248509690215;E0eHMfiO":f</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3876,71 +4139,77 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5005355168820</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_100E</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>4610248509706</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
         <is>
           <t>0104610248509706215JezPT8qZVs,x</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3955,71 +4224,77 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5005355168837</t>
+          <t>535005</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>ZE:BRA_535005_пион_100F</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>1530.00</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>76.50</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>1606.50</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>4610248509980</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
         <is>
           <t>0104610248509980215F2'D%TLd0Kpi</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4034,71 +4309,77 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5002055168617</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_90B</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>4610248509614</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
         <is>
           <t>0104610248509614215:!dblJf/9EuW; 0104610248509614215_NfYQ3OGAj7q</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4113,71 +4394,77 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5002055168518</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_85C</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>9617.14</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>480.86</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>10098.00</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>4610248509577</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
         <is>
           <t>01046102485095772157ISR:j?LsL0i; 0104610248509577215?jmxNhCpoRZH; 0104610248509577215&lt;/mHXTKhtevk; 0104610248509577215gSG+LMfe2Z*q; 0104610248509577215"GUa,!hW7'on; 0104610248509577215;CVS?iFmVoK0</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4192,71 +4479,77 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5002055168525</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_85D</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>6411.43</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>320.57</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>6732.00</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>4610248509584</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
         <is>
           <t>0104610248509584215;FwnOtjaqWc); 0104610248509584215-5e&gt;zPFvAULH; 0104610248509584215bWUuqCTG&lt;qfI; 0104610248509584215lIS7._CpazUq</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4271,71 +4564,77 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5002055168303</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_75D</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>4610248509461</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
         <is>
           <t>0104610248509461215GvXFKoR&gt;OL)E; 0104610248509461215fDo3WkpltIQQ</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4350,71 +4649,77 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5002055168433</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_80F</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>4610248509546</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
         <is>
           <t>0104610248509546215q):-e:sr4CHG; 0104610248509546215yWHqsq8i&amp;ND'</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4429,71 +4734,77 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5002055168723</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_95B</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>4610248509652</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
         <is>
           <t>0104610248509652215D9g*nSH5NYlv; 0104610248509652215Noen-9J3&lt;l!r</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4508,71 +4819,77 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5002055168419</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_80D</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>4610248509522</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
         <is>
           <t>0104610248509522215tL6DgrDp7JOw; 0104610248509522215dGv9XHm7m6Qb</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4587,71 +4904,77 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5002055168402</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_80C</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>6411.43</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>320.57</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>6732.00</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>4610248509515</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
         <is>
           <t>0104610248509515215cO*D_lZhpibs; 0104610248509515215DBxKZ0KUJdJ%; 0104610248509515215+HSli6pINhaT; 0104610248509515215O3MJw%LkSfja</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4666,71 +4989,77 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5002055168631</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_90D</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>4610248509638</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
         <is>
           <t>0104610248509638215Kt"C-XZOL+Kb; 01046102485096382159sS&gt;R(cqTU&gt;g</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4745,71 +5074,77 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5002055168426</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_80E</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>4610248509539</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
         <is>
           <t>0104610248509539215z*Oi5'&amp;CUh)f; 0104610248509539215&amp;Qi&amp;J:4oTtEZ</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4824,71 +5159,77 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5002055168501</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_85B</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>4610248509560</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
         <is>
           <t>0104610248509560215:r"pFMTPi?bi; 0104610248509560215s&amp;BhvcDX.ASS</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4903,71 +5244,77 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5002055168532</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_85E</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>4610248509591</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
         <is>
           <t>0104610248509591215kK;:vt.c,FXh; 0104610248509591215JREwSOsFdv79</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4982,71 +5329,77 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5002055168730</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_95C</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>4610248509669</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
         <is>
           <t>0104610248509669215gD,-ArnaVb&gt;V; 0104610248509669215L*c*KA8OXG!O</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5061,71 +5414,77 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5002055168396</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_80B</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>3205.71</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>160.29</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>3366.00</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>4610248509508</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
         <is>
           <t>0104610248509508215aWP(S%wIRrKO; 0104610248509508215_Cl,Nq+sXvIr</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5140,71 +5499,77 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5002055168624</t>
+          <t>502005</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>ZE:BRA_502005_пион_90C</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>6212109000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>1602.86</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>6411.43</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>5%</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>320.57</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>без акциза</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>6732.00</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>796</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>4610248509621</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
         <is>
           <t>0104610248509621215k=kppKNEnZKQ; 0104610248509621215cTe"8/QPpk2M; 01046102485096212156MSfOXUx&amp;Yar; 0104610248509621215W2gk-,E&gt;V9zl</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5253,11 +5618,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>6</t>
@@ -5361,7 +5722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP3"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5387,354 +5748,409 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>НаимДокОпр</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>ДатаДок</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>НомерДок</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ОКПО_СвПрод</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ИННЮЛ_СвПрод</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>КПП_СвПрод</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>НаимОрг_СвПрод</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ИННФЛ_СвПрод</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>СвГосРегИП_СвПрод</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Фамилия_СвПрод</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Имя_СвПрод</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Отчество_СвПрод</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Индекс_СвПрод</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>КодРегион_СвПрод</t>
+          <t>Адрес_СвПрод</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>НаимРегион_СвПрод</t>
+          <t>Тлф_СвПрод</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Город_СвПрод</t>
+          <t>ЭлПочта_СвПрод</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>АдрТекст_СвПрод</t>
+          <t>НомерСчета_СвПрод</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>КодСтр_СвПрод</t>
+          <t>БИК_СвПрод</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>НаимСтран_СвПрод</t>
+          <t>НаимБанк_СвПрод</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Тлф_СвПрод</t>
+          <t>КорСчет_СвПрод</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>ЭлПочта_СвПрод</t>
+          <t>ОнЖе_ГрузОт</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>НомерСчёта_СвПрод</t>
+          <t>ОКПО_ГрузОт</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>БИК_СвПрод</t>
+          <t>ИННЮЛ_ГрузОт</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>НаимБанк_СвПрод</t>
+          <t>КПП_ГрузОт</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>КорСчет_СвПрод</t>
+          <t>НаимОрг_ГрузОт</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>ОнЖе_ГрузОт</t>
+          <t>Адрес_ГрузОт</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>ОКПО_ГрузОт</t>
+          <t>Тлф_ГрузОт</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>ИННЮЛ_ГрузОт</t>
+          <t>ЭлПочта_ГрузОт</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>КПП_ГрузОт</t>
+          <t>ОКПО_ГрузПолуч</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>НаимОрг_ГрузОт</t>
+          <t>СокрНаим_ГрузПолуч</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>АдрТекст_ГрузОт</t>
+          <t>ИННФЛ_ГрузПолуч</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>КодСтр_ГрузОт</t>
+          <t>СвГосРегИП_ГрузПолуч</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>НаимСтран_ГрузОт</t>
+          <t>Фамилия_ГрузПолуч</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Тлф_ГрузОт</t>
+          <t>Имя_ГрузПолуч</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>ЭлПочта_ГрузОт</t>
+          <t>Отчество_ГрузПолуч</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>ОКПО_ГрузПолуч</t>
+          <t>Адрес_ГрузПолуч</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>СокрНаим_ГрузПолуч</t>
+          <t>Тлф_ГрузПолуч</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>ИННФЛ_ГрузПолуч</t>
+          <t>ЭлПочта_ГрузПолуч</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>СвГосРегИП_ГрузПолуч</t>
+          <t>НомерСчета_ГрузПолуч</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Фамилия_ГрузПолуч</t>
+          <t>БИК_ГрузПолуч</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Имя_ГрузПолуч</t>
+          <t>НаимБанк_ГрузПолуч</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Отчество_ГрузПолуч</t>
+          <t>КорСчет_ГрузПолуч</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Дом_ГрузПолуч</t>
+          <t>ОКПО_СвПокуп</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Индекс_ГрузПолуч</t>
+          <t>СокрНаим_СвПокуп</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>КодРегион_ГрузПолуч</t>
+          <t>ИННФЛ_СвПокуп</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>НаимРегион_ГрузПолуч</t>
+          <t>СвГосРегИП_СвПокуп</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Улица_ГрузПолуч</t>
+          <t>Фамилия_СвПокуп</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>ОКПО_СвПокуп</t>
+          <t>Имя_СвПокуп</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>СокрНаим_СвПокуп</t>
+          <t>Отчество_СвПокуп</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>ИННФЛ_СвПокуп</t>
+          <t>Адрес_СвПокуп</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>СвГосРегИП_СвПокуп</t>
+          <t>Тлф_СвПокуп</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Фамилия_СвПокуп</t>
+          <t>ЭлПочта_СвПокуп</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Имя_СвПокуп</t>
+          <t>НомерСчета_СвПокуп</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Отчество_СвПокуп</t>
+          <t>БИК_СвПокуп</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>АдрТекст_СвПокуп</t>
+          <t>НаимБанк_СвПокуп</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>КодСтр_СвПокуп</t>
+          <t>КорСчет_СвПокуп</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>НаимСтран_СвПокуп</t>
+          <t>РеквДатаДок_ДокПодтв</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>НомерСчёта_СвПокуп</t>
+          <t>РеквНаимДок_ДокПодтв</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>БИК_СвПокуп</t>
+          <t>РеквНомерДок_ДокПодтв</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>НаимБанк_СвПокуп</t>
+          <t>КодОКВ</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>КорСчет_СвПокуп</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>РеквДатаДок_ДокПодтв</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>РеквНаимДок_ДокПодтв</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>РеквНомерДок_ДокПодтв</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>КодОКВ</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
           <t>НаимОКВ</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15.14.42</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Индивидуальный предприниматель Рябокон Оксана Васильевна, ИНН-ОГРНИП: 401300984333-320502700024241</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>УПД</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.04.2025</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>02756-м</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2001456255</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>401300984333</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>320502700024241</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Рябокон</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Оксана</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Васильевна</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Индекс=142700; КодРегион=50; НаимРегион=Московская; Город=Ленинский р-н, г Видное</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>8-903--58-48-256</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>romox8176@mail.ru</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>40802810808500026313</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>044525104</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>ООО "Банк Точка"</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>30101810745374525104</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>он же</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -5742,274 +6158,143 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0125038461</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>781490083171</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>318470400003005</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Дворецкий</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Константин</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Индекс=188662; КодРегион=47; НаимРегион=Ленинградская; Город=Всеволожский р-н, г Мурино</t>
+        </is>
+      </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>40802810432410006974</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>044030786</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>ФИЛИАЛ "САНКТ-ПЕТЕРБУРГСКИЙ" АО "АЛЬФА-БАНК"</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>30101810600000000786</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>0125038461</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>781490083171</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>318470400003005</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Дворецкий</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Константин</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Индекс=188662; КодРегион=47; НаимРегион=Ленинградская; Город=Всеволожский р-н, г Мурино</t>
+        </is>
+      </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>40802810432410006974</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>044030786</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>ФИЛИАЛ "САНКТ-ПЕТЕРБУРГСКИЙ" АО "АЛЬФА-БАНК"</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>30101810600000000786</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
         <is>
           <t>21.04.2025</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>УПД</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
         <is>
           <t>02756-м</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2001456255.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>401300984333.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>320502700024241.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Рябокон</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Оксана</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Васильевна</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>142700.0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Московская</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Ленинский р-н, г Видное</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>8-903--58-48-256</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>romox8176@mail.ru</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>44525104.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>ООО "Банк Точка"</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>30101810745374525104</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>он же</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>125038461.0</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>781490083171.0</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>318470400003005.0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>Дворецкий</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>Константин</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>Анатольевич</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>188662.0</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>125038461.0</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>781490083171.0</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>318470400003005.0</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>Дворецкий</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>Константин</t>
-        </is>
-      </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>Анатольевич</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>44030786.0</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>ФИЛИАЛ "САНКТ-ПЕТЕРБУРГСКИЙ" АО "АЛЬФА-БАНК"</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>30101810600000000786</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>21.04.2025</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>УПД</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>02756-м</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>643.0</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr">
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
         <is>
           <t>Российский рубль</t>
         </is>
@@ -6044,7 +6329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6055,24 +6340,83 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ВсегоОпл</t>
+          <t>ИдФайл</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>СумНалВсего</t>
+          <t>ВерсФорм</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ВерсПрог</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>ON_NSCHFDOPPR___20250525_1a7edbde-ddf6-4632-a3ee-6cae701a3379_0_1_0_0_0_00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>МойСклад</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ВсегоОпл</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>СумНалВсего</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>СтТовУчНалВсего</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>9081.29</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>190706.0</t>
         </is>
       </c>
     </row>
